--- a/Rast_Latam(backup)/Rastreamento.xlsx
+++ b/Rast_Latam(backup)/Rastreamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\REPOSITÓRIO\PYTHON\Rast_Latam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\PYTHON\Rast_Latam(backup)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0F48E-CF2A-45A2-907B-3C9B87BD0EDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4D0AB-566B-420E-AFC0-78968172F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rast" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>LATAM - SUBWAY</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>data da entrega</t>
+  </si>
+  <si>
+    <t>entregue</t>
   </si>
 </sst>
 </file>
@@ -66,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +119,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -163,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -184,6 +195,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,21 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A24D24-1B0C-4035-8B69-1C377FD6DF32}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M6" activeCellId="1" sqref="E10 M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -567,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>19233</v>
       </c>
@@ -578,13 +590,13 @@
         <v>95712801530</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>37823</v>
       </c>
@@ -595,13 +607,13 @@
         <v>95712800896</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4">
         <v>45174</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>38877</v>
       </c>
@@ -612,13 +624,13 @@
         <v>95712800093</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4">
         <v>45174</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>41262</v>
       </c>
@@ -635,7 +647,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42642</v>
       </c>
@@ -651,6 +663,10 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">

--- a/Rast_Latam(backup)/Rastreamento.xlsx
+++ b/Rast_Latam(backup)/Rastreamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\PYTHON\Rast_Latam(backup)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4D0AB-566B-420E-AFC0-78968172F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FF77D7-87FA-4125-8F7F-E2C84FDB8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
+    <workbookView xWindow="3588" yWindow="1284" windowWidth="17280" windowHeight="8964" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rast" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>data da entrega</t>
   </si>
   <si>
-    <t>entregue</t>
+    <t>ENTREGUE</t>
   </si>
 </sst>
 </file>
@@ -69,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -174,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -196,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +562,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" activeCellId="1" sqref="E10 M6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -587,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>95712801530</v>
+        <v>12801530</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -604,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="8">
-        <v>95712800896</v>
+        <v>12800896</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -621,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>95712800093</v>
+        <v>12800093</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -638,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>95712799592</v>
+        <v>12799592</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -655,9 +666,9 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>95713102972</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>13102972</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4">

--- a/Rast_Latam(backup)/Rastreamento.xlsx
+++ b/Rast_Latam(backup)/Rastreamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\PYTHON\Rast_Latam(backup)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FF77D7-87FA-4125-8F7F-E2C84FDB8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21F3D4-A472-4F5C-9C95-9DBBB7C5A08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="1284" windowWidth="17280" windowHeight="8964" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rast" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>LATAM - SUBWAY</t>
   </si>
@@ -47,19 +47,22 @@
     <t>Retida</t>
   </si>
   <si>
-    <t>fraquia</t>
-  </si>
-  <si>
-    <t>modal</t>
-  </si>
-  <si>
     <t>AWB</t>
   </si>
   <si>
-    <t>data da entrega</t>
-  </si>
-  <si>
     <t>ENTREGUE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DATA_EVENTO</t>
+  </si>
+  <si>
+    <t>MODAL</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -78,13 +81,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -98,13 +94,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,6 +124,22 @@
     <font>
       <u/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,27 +189,33 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,31 +573,31 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6">
-        <v>45182</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -597,11 +608,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>12801530</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -614,11 +625,11 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>12800896</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
         <v>45174</v>
@@ -631,11 +642,11 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>12800093</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4">
         <v>45174</v>
@@ -648,7 +659,7 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>12799592</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -665,19 +676,19 @@
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>13102972</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
@@ -691,5 +702,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>